--- a/documents/felicette_server.xlsx
+++ b/documents/felicette_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Desktop\work\felicette_server\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\felicette_server\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>API</t>
   </si>
@@ -90,14 +90,23 @@
     <t>PROJECT DESCRIPTION</t>
   </si>
   <si>
-    <t>as</t>
+    <t>http://localhost:8080</t>
+  </si>
+  <si>
+    <t>base url</t>
+  </si>
+  <si>
+    <t>sigin</t>
+  </si>
+  <si>
+    <t>/api/auth/signin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +121,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -198,16 +221,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -224,9 +244,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,6 +273,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>192441</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>105747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="4457700"/>
+          <a:ext cx="13908441" cy="6963747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>116310</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>96061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="3886200"/>
+          <a:ext cx="14403810" cy="5811061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP18" sqref="AP18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AW9" sqref="AW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,97 +663,97 @@
       <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -728,8 +840,10 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -751,176 +865,190 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="8" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C10" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="8" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="8" t="s">
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="10"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="9"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="4" t="s">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="6"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="5"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="4" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="4" t="s">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="6"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="5"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="4" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="4" t="s">
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="6"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="5"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="4" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="4" t="s">
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="6"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -935,6 +1063,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/documents/felicette_server.xlsx
+++ b/documents/felicette_server.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
-    <sheet name="role" sheetId="2" r:id="rId2"/>
+    <sheet name="screen" sheetId="2" r:id="rId2"/>
+    <sheet name="DB" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>API</t>
   </si>
@@ -100,6 +101,27 @@
   </si>
   <si>
     <t>/api/auth/signin</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>item name</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -244,6 +266,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -253,11 +280,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,6 +373,789 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="1152525"/>
+          <a:ext cx="1809750" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>dashboard</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="123825"/>
+          <a:ext cx="1514475" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="209550"/>
+          <a:ext cx="1247775" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Down Arrow 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5191125" y="190500"/>
+          <a:ext cx="342900" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Right Arrow 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133850" y="200025"/>
+          <a:ext cx="657225" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Elbow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="161925"/>
+          <a:ext cx="647700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5129213" y="1828800"/>
+          <a:ext cx="4762" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="2476500"/>
+          <a:ext cx="1514475" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>order</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="3238500"/>
+          <a:ext cx="1514475" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>order management</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="4000500"/>
+          <a:ext cx="1514475" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>order delivery</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="4762500"/>
+          <a:ext cx="1514475" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>analysis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="5524500"/>
+          <a:ext cx="1514475" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>item manager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="6286500"/>
+          <a:ext cx="1514475" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> manager</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="7048500"/>
+          <a:ext cx="1514475" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>vendor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> manager</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -621,139 +1426,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="AW9" sqref="AW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -840,7 +1645,7 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2"/>
@@ -870,7 +1675,7 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1040,13 +1845,13 @@
       <c r="AA16" s="5"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="15"/>
+      <c r="C52" s="12"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1069,9 +1874,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="L30:R30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="30" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/documents/felicette_server.xlsx
+++ b/documents/felicette_server.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
-    <sheet name="screen" sheetId="2" r:id="rId2"/>
-    <sheet name="DB" sheetId="3" r:id="rId3"/>
+    <sheet name="browser extension" sheetId="5" r:id="rId2"/>
+    <sheet name="screen" sheetId="2" r:id="rId3"/>
+    <sheet name="DB" sheetId="3" r:id="rId4"/>
+    <sheet name="settup" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>API</t>
   </si>
@@ -122,13 +124,97 @@
   </si>
   <si>
     <t>image</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Allow CORS: Access-Control-Allow-Origin</t>
+  </si>
+  <si>
+    <t>authentication</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>jwt</t>
+  </si>
+  <si>
+    <t>nodemon</t>
+  </si>
+  <si>
+    <t>npm i --save-dev nodemon</t>
+  </si>
+  <si>
+    <t>npm run startServer</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>delivery_address</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>delivery_date</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>unit_price</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>create_at</t>
+  </si>
+  <si>
+    <t>edit_at</t>
+  </si>
+  <si>
+    <t>create_by</t>
+  </si>
+  <si>
+    <t>quanlity</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>fabric</t>
+  </si>
+  <si>
+    <t>note_by_customer</t>
+  </si>
+  <si>
+    <t>note_by_employee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +243,12 @@
       <color rgb="FF212121"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -243,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,6 +363,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -382,14 +478,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -400,7 +496,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4229100" y="1152525"/>
+          <a:off x="1752600" y="1152525"/>
           <a:ext cx="1809750" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -702,14 +798,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>252413</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -722,7 +818,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5129213" y="1828800"/>
+          <a:off x="2652713" y="1828800"/>
           <a:ext cx="4762" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -751,16 +847,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -769,8 +865,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="2476500"/>
-          <a:ext cx="1514475" cy="361950"/>
+          <a:off x="1790700" y="2476500"/>
+          <a:ext cx="1809750" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -808,16 +904,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -826,7 +922,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="3238500"/>
+          <a:off x="1866900" y="3257550"/>
           <a:ext cx="1514475" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -865,14 +961,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -883,7 +979,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="4000500"/>
+          <a:off x="1790700" y="4000500"/>
           <a:ext cx="1514475" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -922,14 +1018,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -940,7 +1036,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="4762500"/>
+          <a:off x="1790700" y="4762500"/>
           <a:ext cx="1514475" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -979,14 +1075,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -997,7 +1093,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="5524500"/>
+          <a:off x="1790700" y="5524500"/>
           <a:ext cx="1514475" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1036,14 +1132,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -1054,7 +1150,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="6286500"/>
+          <a:off x="1790700" y="6286500"/>
           <a:ext cx="1514475" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1098,14 +1194,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -1116,7 +1212,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4276725" y="7048500"/>
+          <a:off x="1800225" y="7048500"/>
           <a:ext cx="1514475" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1424,150 +1520,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA53"/>
+  <dimension ref="A1:AA96"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="AW9" sqref="AW9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1582,7 +1674,6 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -1591,7 +1682,9 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1619,7 +1712,9 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1855,6 +1950,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B4:AA4"/>
@@ -1874,10 +1974,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L30:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,16 +2035,145 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:U3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/felicette_server.xlsx
+++ b/documents/felicette_server.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>API</t>
   </si>
@@ -150,64 +150,136 @@
     <t>npm run startServer</t>
   </si>
   <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>orders</t>
-  </si>
-  <si>
-    <t>customer_name</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
-    <t>delivery_address</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>delivery_date</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>order_date</t>
-  </si>
-  <si>
-    <t>unit_price</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>column</t>
-  </si>
-  <si>
-    <t>create_at</t>
-  </si>
-  <si>
-    <t>edit_at</t>
-  </si>
-  <si>
-    <t>create_by</t>
-  </si>
-  <si>
-    <t>quanlity</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>fabric</t>
-  </si>
-  <si>
-    <t>note_by_customer</t>
-  </si>
-  <si>
-    <t>note_by_employee</t>
+    <t>DROP TABLE IF EXISTS public.m_items;</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS public.m_items</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    id integer NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name character varying(35) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    supplier_name character varying(35) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    quanlity character varying(10) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    branch character varying(10) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fabric character varying(20) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    status character varying(3) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    create_by character varying(20) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    edit_at timestamp without time zone,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    create_at timestamp without time zone,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CONSTRAINT m_items_pkey PRIMARY KEY (id)</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>TABLESPACE pg_default;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE IF EXISTS public.t_orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OWNER to postgres;</t>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS public.m_sizes;</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS public.m_sizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name character varying(10) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    size character varying(10) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CONSTRAINT m_sizes_pkey PRIMARY KEY (id)</t>
+  </si>
+  <si>
+    <t>ALTER TABLE IF EXISTS public.m_sizes</t>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS public.m_item_size;</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS public.m_item_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    item_id integer NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    size_id integer NOT NULL,</t>
+  </si>
+  <si>
+    <t>ALTER TABLE IF EXISTS public.m_item_size</t>
+  </si>
+  <si>
+    <t>-- Table: public.t_orders</t>
+  </si>
+  <si>
+    <t>-- Table: public.m_sizes</t>
+  </si>
+  <si>
+    <t>-- Table: public.m_item_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CONSTRAINT m_item_size_pkey PRIMARY KEY (id), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image_1 character varying(200) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image_2 character varying(200) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image_3 character varying(200) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image_4 character varying(200) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image_5 character varying(200) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    edit_by character varying(20) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    inventory_number numeric,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    unit_price numeric,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CONSTRAINT m_item_size_ukey UNIQUE (item_id, size_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    description character varying(200) COLLATE pg_catalog."default",</t>
   </si>
 </sst>
 </file>
@@ -335,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,6 +439,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1522,139 +1595,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -2001,7 +2074,7 @@
   <dimension ref="L30:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,104 +2110,366 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U3"/>
+  <dimension ref="B2:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="16.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="s">
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" t="s">
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" t="s">
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="R3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" t="s">
-        <v>52</v>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/documents/felicette_server.xlsx
+++ b/documents/felicette_server.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\felicette_server\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\felicette\felicette_server\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606AC05F-BFA7-4A0C-AC04-380BF667B9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2700" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
   <si>
     <t>API</t>
   </si>
@@ -280,13 +281,170 @@
   </si>
   <si>
     <t xml:space="preserve">    description character varying(200) COLLATE pg_catalog."default",</t>
+  </si>
+  <si>
+    <t>Khách hàng đến cửa hàng hoặc gửi đơn hàng qua các kênh truyền thông như website, điện thoại, email, hoặc ứng dụng di động của cửa hàng.</t>
+  </si>
+  <si>
+    <t>Thông tin đơn hàng bao gồm số lượng áo, màu sắc, kích cỡ, số và tên muốn in lên áo.</t>
+  </si>
+  <si>
+    <t>Nhân viên cửa hàng xác nhận thông tin đơn hàng với khách hàng để đảm bảo chính xác và đầy đủ.</t>
+  </si>
+  <si>
+    <t>Kiểm tra sự khả dụng của sản phẩm trong kho hoặc thực hiện đặt hàng từ nhà cung cấp nếu cần.</t>
+  </si>
+  <si>
+    <t>Đưa thông tin về số và tên muốn in lên áo vào mẫu thiết kế.</t>
+  </si>
+  <si>
+    <t>Khách hàng có thể được yêu cầu xác nhận mẫu thiết kế trước khi tiến hành in.</t>
+  </si>
+  <si>
+    <r>
+      <t>In ấn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Chuyển mẫu thiết kế sang bộ phận in ấn.</t>
+  </si>
+  <si>
+    <t>In số áo và tên theo yêu cầu của khách hàng lên áo bóng đá với chất lượng cao.</t>
+  </si>
+  <si>
+    <r>
+      <t>Kiểm tra chất lượng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Kiểm tra áo in để đảm bảo rằng số và tên đã in chính xác và không có lỗi.</t>
+  </si>
+  <si>
+    <t>Đảm bảo rằng áo bóng đá đáp ứng các tiêu chuẩn chất lượng của cửa hàng.</t>
+  </si>
+  <si>
+    <r>
+      <t>Đóng gói và giao hàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Đóng gói sản phẩm một cách cẩn thận để đảm bảo an toàn trong quá trình vận chuyển.</t>
+  </si>
+  <si>
+    <t>Giao hàng cho khách hàng hoặc sắp xếp phương tiện vận chuyển để chuyển hàng đến địa chỉ của khách hàng.</t>
+  </si>
+  <si>
+    <r>
+      <t>Thanh toán và hậu mãi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Thu tiền từ khách hàng theo hình thức thanh toán đã thỏa thuận.</t>
+  </si>
+  <si>
+    <t>Cung cấp hỗ trợ hậu mãi cho khách hàng nếu cần thiết, bao gồm việc đổi trả hàng hoặc xử lý các vấn đề kỹ thuật liên quan đến sản phẩm.</t>
+  </si>
+  <si>
+    <r>
+      <t>Ghi nhận đơn hàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Ghi nhận đơn hàng vào hệ thống quản lý để theo dõi tình trạng đơn hàng, tồn kho và doanh số bán hàng.</t>
+  </si>
+  <si>
+    <r>
+      <t>-Xác nhận đơn hàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-Thiết kế áo bóng đá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-Tiếp nhận đơn(PreOrder)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +479,18 @@
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -407,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,7 +605,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -448,6 +617,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,7 +664,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -521,7 +708,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -551,136 +744,31 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="1152525"/>
-          <a:ext cx="1809750" cy="676275"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>dashboard</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6267450" y="123825"/>
-          <a:ext cx="1514475" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Oval 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8305800" y="209550"/>
+          <a:off x="11229975" y="171450"/>
           <a:ext cx="1247775" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -729,7 +817,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Down Arrow 4"/>
+        <xdr:cNvPr id="5" name="Down Arrow 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -783,7 +877,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Right Arrow 5"/>
+        <xdr:cNvPr id="6" name="Right Arrow 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -837,7 +937,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Elbow Connector 7"/>
+        <xdr:cNvPr id="8" name="Elbow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -871,303 +977,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2652713" y="1828800"/>
-          <a:ext cx="4762" cy="666750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960E414B-6D8B-44AC-AEB9-D484C421FF9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1790700" y="2476500"/>
-          <a:ext cx="1809750" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>order</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1866900" y="3257550"/>
-          <a:ext cx="1514475" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>order management</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1790700" y="4000500"/>
-          <a:ext cx="1514475" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>order delivery</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1790700" y="4762500"/>
-          <a:ext cx="1514475" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>analysis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1790700" y="5524500"/>
-          <a:ext cx="1514475" cy="361950"/>
+          <a:off x="1828800" y="5715000"/>
+          <a:ext cx="1828800" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1205,26 +1040,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 26"/>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F256E7-174D-4EB7-AB41-84DF1205A1E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1790700" y="6286500"/>
-          <a:ext cx="1514475" cy="361950"/>
+          <a:off x="1828800" y="6476999"/>
+          <a:ext cx="1819275" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1267,26 +1108,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectangle 27"/>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D3DA00-FC86-466D-981B-A53E31390831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1800225" y="7048500"/>
-          <a:ext cx="1514475" cy="361950"/>
+          <a:off x="1828800" y="7238999"/>
+          <a:ext cx="1819275" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1320,6 +1167,772 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> manager</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Flowchart: Magnetic Disk 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53234C1-37DC-422C-9617-C5B1CD836A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="2095499"/>
+          <a:ext cx="1828800" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pre order</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Flowchart: Magnetic Disk 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA948930-9F8F-4EC9-9F61-5BF19D8CAFC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="3047999"/>
+          <a:ext cx="1828800" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>order management</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Flowchart: Magnetic Disk 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53EEFF7-A8E7-4E34-B626-258BAB462BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="4000501"/>
+          <a:ext cx="1828800" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>invoice</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Flowchart: Magnetic Disk 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1486C0E-DF26-4CBD-AB74-16881C500F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="4953000"/>
+          <a:ext cx="1838325" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>packed &amp; delivery</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DAED7C2-7789-A5C7-6B28-DC5DA0B02BB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6115050" y="171450"/>
+          <a:ext cx="1828800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>item manager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Flowchart: Magnetic Disk 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E53DC0-8302-B555-4053-F4AC4926A926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="38099"/>
+          <a:ext cx="1828800" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pre order</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Down Arrow 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ACC924F-C89F-1F1A-5E19-88635B5225D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581275" y="2733675"/>
+          <a:ext cx="342900" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Down Arrow 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D865C0BC-55D5-C6FD-D880-6B93034D09B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="3695700"/>
+          <a:ext cx="342900" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Down Arrow 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562AC824-9C5D-9029-9979-18D977DAED64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="4657725"/>
+          <a:ext cx="342900" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10F4C73-6CA4-48C5-A5F9-E1E8FFCC371B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="8001000"/>
+          <a:ext cx="1819275" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dashboard</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1592,142 +2205,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA96"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -2046,7 +2659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2059,7 +2672,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2070,11 +2683,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L30:R30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B30:R89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,6 +2715,145 @@
         <v>31</v>
       </c>
     </row>
+    <row r="59" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B59" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B60" s="19"/>
+    </row>
+    <row r="61" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B61" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B62" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B63" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B64" s="19"/>
+    </row>
+    <row r="65" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B65" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B66" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B67" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B68" s="19"/>
+    </row>
+    <row r="69" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B69" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B70" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B71" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B72" s="19"/>
+    </row>
+    <row r="73" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B73" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B74" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B75" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B76" s="19"/>
+    </row>
+    <row r="77" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B77" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B78" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B79" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B80" s="19"/>
+    </row>
+    <row r="81" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B81" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B82" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B83" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B84" s="19"/>
+    </row>
+    <row r="85" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B85" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B86" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B87" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B88" s="19"/>
+    </row>
+    <row r="89" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B89" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2109,366 +2861,366 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="16.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2479,32 +3231,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>37</v>
       </c>
     </row>

--- a/documents/felicette_server.xlsx
+++ b/documents/felicette_server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\felicette\felicette_server\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606AC05F-BFA7-4A0C-AC04-380BF667B9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84953868-747B-410F-8C02-5FCADE38F3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="116">
   <si>
     <t>API</t>
   </si>
@@ -103,9 +103,6 @@
     <t>sigin</t>
   </si>
   <si>
-    <t>/api/auth/signin</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
   </si>
   <si>
     <t>image</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Allow CORS: Access-Control-Allow-Origin</t>
@@ -439,12 +433,277 @@
       <t>:</t>
     </r>
   </si>
+  <si>
+    <t>sigup</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"username"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"email"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"qwer@adsf.qwer"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"roles"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"username"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"username"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"123"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{{base_url}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/api/auth/signup</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{{base_url}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/api/auth/signin</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +748,42 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0451A5"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF098658"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -577,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -609,15 +904,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -630,6 +916,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,50 +949,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>192441</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>105747</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="857250" y="4457700"/>
-          <a:ext cx="13908441" cy="6963747"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -720,7 +976,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -729,6 +985,180 @@
         <a:xfrm>
           <a:off x="571500" y="3886200"/>
           <a:ext cx="14403810" cy="5811061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>188905</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>132548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C3D323-D459-406A-9450-4466AC169802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="20274643"/>
+          <a:ext cx="12761905" cy="6419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>157238</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D30ADD-B757-4DE6-963B-720433DB7379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="22673" t="19917" b="13090"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13716000" y="20655643"/>
+          <a:ext cx="12158738" cy="5538107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>255357</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>84786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF110BF-AF9D-452A-814B-23FDCCCCF6EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="11892643"/>
+          <a:ext cx="14542857" cy="7514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>24036</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>112000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B3FB0B-6077-423F-A6F0-BA2C4BDD37F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="25169" t="22454"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15716250" y="13607143"/>
+          <a:ext cx="10882536" cy="5827000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2206,145 +2636,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA96"/>
+  <dimension ref="A1:AA110"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2369,7 +2799,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2399,7 +2829,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2632,13 +3062,68 @@
       <c r="C52" s="12"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>32</v>
+      <c r="D53" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="23" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2694,164 +3179,164 @@
   <sheetData>
     <row r="30" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
         <v>25</v>
       </c>
-      <c r="M30" t="s">
+      <c r="O30" t="s">
         <v>27</v>
       </c>
-      <c r="N30" t="s">
-        <v>26</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>28</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>29</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>30</v>
       </c>
-      <c r="R30" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="59" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B59" s="21" t="s">
-        <v>106</v>
+      <c r="B59" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B60" s="19"/>
+      <c r="B60" s="16"/>
     </row>
     <row r="61" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B62" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B63" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B64" s="16"/>
+    </row>
+    <row r="65" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B65" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B62" s="20" t="s">
+    <row r="66" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B66" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B63" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
-    </row>
-    <row r="65" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B65" s="20" t="s">
+    <row r="67" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B67" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B68" s="16"/>
+    </row>
+    <row r="69" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B69" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B66" s="20" t="s">
+    <row r="70" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B70" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B67" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B68" s="19"/>
-    </row>
-    <row r="69" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B69" s="20" t="s">
+    <row r="71" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B71" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B70" s="20" t="s">
+    <row r="72" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B72" s="16"/>
+    </row>
+    <row r="73" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B73" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B71" s="18" t="s">
+    <row r="74" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B74" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B72" s="19"/>
-    </row>
-    <row r="73" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B73" s="20" t="s">
+    <row r="75" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B75" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B74" s="20" t="s">
+    <row r="76" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B76" s="16"/>
+    </row>
+    <row r="77" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B77" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B75" s="18" t="s">
+    <row r="78" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B78" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B76" s="19"/>
-    </row>
-    <row r="77" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B77" s="20" t="s">
+    <row r="79" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B79" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B78" s="20" t="s">
+    <row r="80" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B80" s="16"/>
+    </row>
+    <row r="81" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B81" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B79" s="18" t="s">
+    <row r="82" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B82" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B80" s="19"/>
-    </row>
-    <row r="81" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B81" s="20" t="s">
+    <row r="83" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B83" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B82" s="20" t="s">
+    <row r="84" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B84" s="16"/>
+    </row>
+    <row r="85" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B85" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B83" s="18" t="s">
+    <row r="86" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B86" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B84" s="19"/>
-    </row>
-    <row r="85" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B85" s="20" t="s">
+    <row r="87" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B87" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B86" s="20" t="s">
+    <row r="88" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B88" s="16"/>
+    </row>
+    <row r="89" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B89" s="17" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B87" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B88" s="19"/>
-    </row>
-    <row r="89" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B89" s="20" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2864,7 +3349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:B69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -2891,337 +3376,337 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3234,7 +3719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -3242,22 +3727,22 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/documents/felicette_server.xlsx
+++ b/documents/felicette_server.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\felicette\felicette_server\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\felicette_server\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84953868-747B-410F-8C02-5FCADE38F3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="139">
   <si>
     <t>API</t>
   </si>
@@ -698,11 +697,80 @@
       <t>/api/auth/signin</t>
     </r>
   </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>order_detail</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>delivery_date</t>
+  </si>
+  <si>
+    <t>delivery_address</t>
+  </si>
+  <si>
+    <t>create_at</t>
+  </si>
+  <si>
+    <t>update_at</t>
+  </si>
+  <si>
+    <t>create_by</t>
+  </si>
+  <si>
+    <t>update_by</t>
+  </si>
+  <si>
+    <t>order_creator</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>image_order</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -916,6 +984,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -925,11 +998,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2635,142 +2703,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -3062,67 +3130,67 @@
       <c r="C52" s="12"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="21" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="24" t="s">
+      <c r="C104" s="21" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="23" t="s">
+      <c r="C105" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="23" t="s">
+      <c r="C106" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="23" t="s">
+      <c r="C107" s="20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="23" t="s">
+      <c r="C108" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="23" t="s">
+      <c r="C109" s="20" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="23" t="s">
+      <c r="C110" s="20" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3144,7 +3212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3168,11 +3236,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B30:R89"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,11 +3414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:B69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AA69"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3366,80 +3434,180 @@
     <col min="9" max="9" width="10.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="14"/>
+    <col min="12" max="12" width="5.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="L3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="L4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="L7" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="L8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>72</v>
       </c>
@@ -3716,7 +3884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/documents/felicette_server.xlsx
+++ b/documents/felicette_server.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\felicette_server\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\felicette\felicette_server\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE94FDB-7EB2-4620-8207-5736F83A0755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="159">
   <si>
     <t>API</t>
   </si>
@@ -766,11 +767,71 @@
   <si>
     <t>phone</t>
   </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>deliveryDate</t>
+  </si>
+  <si>
+    <t>orderDate</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>unitPrice</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>noteByCustomer</t>
+  </si>
+  <si>
+    <t>orderBy</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>createdBy</t>
+  </si>
+  <si>
+    <t>updatedBy</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>updatedAt</t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>fabric</t>
+  </si>
+  <si>
+    <t>delFlg</t>
+  </si>
+  <si>
+    <t>ame</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -984,7 +1045,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2703,7 +2763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA110"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2713,132 +2773,132 @@
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -3130,67 +3190,67 @@
       <c r="C52" s="12"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="20" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="19" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3212,7 +3272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3236,7 +3296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B30:R89"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -3414,11 +3474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3601,95 +3661,206 @@
       <c r="B14" s="14" t="s">
         <v>47</v>
       </c>
+      <c r="N14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>71</v>
       </c>
+      <c r="N15" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N16" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N17" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N18" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N19" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N21" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N22" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N23" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N24" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N25" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N26" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N27" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N28" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N29" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N30" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N31" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>56</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -3884,7 +4055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
